--- a/Assets/Configs/UIPanel.xlsx
+++ b/Assets/Configs/UIPanel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EB3A40-54D8-48C2-9C1F-D0AE00A0678C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0DC00C-DE15-4DA2-AF5F-81E35E2025D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5124" yWindow="1656" windowWidth="16152" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8520" yWindow="2028" windowWidth="16152" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UIPanelTable" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -109,6 +109,10 @@
   </si>
   <si>
     <t>AlertPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BagPanel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,8 +198,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:C6" totalsRowShown="0">
-  <autoFilter ref="A1:C6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PanelID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
@@ -463,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -541,6 +545,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
